--- a/Neural Network for Finance/BTCUSDTWCHG.xlsx
+++ b/Neural Network for Finance/BTCUSDTWCHG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E262"/>
+  <dimension ref="A1:E271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4892,13 +4892,166 @@
         <v>23174.39</v>
       </c>
       <c r="C262" t="n">
-        <v>24245</v>
+        <v>25047.56</v>
       </c>
       <c r="D262" t="n">
-        <v>23154.25</v>
+        <v>22664.69</v>
       </c>
       <c r="E262" t="n">
-        <v>23952.84</v>
+        <v>24305.24</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B263" t="n">
+        <v>24305.25</v>
+      </c>
+      <c r="C263" t="n">
+        <v>25211.32</v>
+      </c>
+      <c r="D263" t="n">
+        <v>20761.9</v>
+      </c>
+      <c r="E263" t="n">
+        <v>21515.61</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B264" t="n">
+        <v>21516.7</v>
+      </c>
+      <c r="C264" t="n">
+        <v>21900</v>
+      </c>
+      <c r="D264" t="n">
+        <v>19520</v>
+      </c>
+      <c r="E264" t="n">
+        <v>19555.61</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B265" t="n">
+        <v>19555.61</v>
+      </c>
+      <c r="C265" t="n">
+        <v>20576.25</v>
+      </c>
+      <c r="D265" t="n">
+        <v>19540</v>
+      </c>
+      <c r="E265" t="n">
+        <v>20000.3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B266" t="n">
+        <v>20000.3</v>
+      </c>
+      <c r="C266" t="n">
+        <v>21860</v>
+      </c>
+      <c r="D266" t="n">
+        <v>18510.77</v>
+      </c>
+      <c r="E266" t="n">
+        <v>21826.87</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B267" t="n">
+        <v>21826.87</v>
+      </c>
+      <c r="C267" t="n">
+        <v>22799</v>
+      </c>
+      <c r="D267" t="n">
+        <v>19320.01</v>
+      </c>
+      <c r="E267" t="n">
+        <v>19416.18</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B268" t="n">
+        <v>19417.45</v>
+      </c>
+      <c r="C268" t="n">
+        <v>19956</v>
+      </c>
+      <c r="D268" t="n">
+        <v>18125.98</v>
+      </c>
+      <c r="E268" t="n">
+        <v>18807.38</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="B269" t="n">
+        <v>18809.13</v>
+      </c>
+      <c r="C269" t="n">
+        <v>20385.86</v>
+      </c>
+      <c r="D269" t="n">
+        <v>18471.28</v>
+      </c>
+      <c r="E269" t="n">
+        <v>19056.8</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44837</v>
+      </c>
+      <c r="B270" t="n">
+        <v>19057.74</v>
+      </c>
+      <c r="C270" t="n">
+        <v>20475</v>
+      </c>
+      <c r="D270" t="n">
+        <v>18959.68</v>
+      </c>
+      <c r="E270" t="n">
+        <v>19439.02</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B271" t="n">
+        <v>19439.96</v>
+      </c>
+      <c r="C271" t="n">
+        <v>19951.87</v>
+      </c>
+      <c r="D271" t="n">
+        <v>18190</v>
+      </c>
+      <c r="E271" t="n">
+        <v>19175.86</v>
       </c>
     </row>
   </sheetData>
